--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="640" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="Quitter-Sponsor" sheetId="2" r:id="rId2"/>
     <sheet name="StandardMessage" sheetId="3" r:id="rId3"/>
     <sheet name="CustomMessage" sheetId="4" r:id="rId4"/>
+    <sheet name="Survey" sheetId="5" r:id="rId5"/>
+    <sheet name="Sale" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -100,13 +99,79 @@
   </si>
   <si>
     <t xml:space="preserve">timestamp </t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>discription</t>
+  </si>
+  <si>
+    <t>unique id for every user</t>
+  </si>
+  <si>
+    <t>title of the message</t>
+  </si>
+  <si>
+    <t>type of the message(text, image, video audio )</t>
+  </si>
+  <si>
+    <t>shared times</t>
+  </si>
+  <si>
+    <t>type of message</t>
+  </si>
+  <si>
+    <t>productID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>instock</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>customer rating</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>messageid</t>
+  </si>
+  <si>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +183,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,14 +221,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,104 +566,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -589,10 +677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -601,36 +689,39 @@
     <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -645,48 +736,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -701,56 +829,221 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
